--- a/data/wiki_200711.xlsx
+++ b/data/wiki_200711.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tabelle 1</t>
-  </si>
-  <si>
-    <t>Daily Statistics for June 2020</t>
   </si>
   <si>
     <t>Day</t>
@@ -55,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0#%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -71,12 +68,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Times Roman"/>
     </font>
     <font>
       <b/>
@@ -271,7 +262,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -282,13 +273,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -299,61 +284,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1513,13 +1495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1529,21 +1511,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.6" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
       <c r="A2" s="2"/>
@@ -1560,1336 +1542,1304 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="59.65" customHeight="1">
+    <row r="3" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>18430</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>17827</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.73E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>15505</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>4407</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>838</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>766194</v>
+      </c>
+      <c r="M5" s="9">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B6" s="8">
+        <v>20210</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>19238</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.02E-2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>16267</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4531</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="10">
+        <v>960</v>
+      </c>
+      <c r="K6" s="9">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="L6" s="10">
+        <v>840490</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="B7" s="8">
+        <v>23883</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>22667</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>19194</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4613</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1018</v>
+      </c>
+      <c r="K7" s="9">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="L7" s="10">
+        <v>909555</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="24" t="s">
+      <c r="B8" s="8">
+        <v>25233</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>23929</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="10">
+        <v>20749</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4555</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>994</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="L8" s="10">
+        <v>862054</v>
+      </c>
+      <c r="M8" s="9">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="25" t="s">
+      <c r="B9" s="8">
+        <v>20488</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>19570</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>16648</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4446</v>
+      </c>
+      <c r="I9" s="9">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="J9" s="10">
+        <v>935</v>
+      </c>
+      <c r="K9" s="9">
+        <v>7.85E-2</v>
+      </c>
+      <c r="L9" s="10">
+        <v>751727</v>
+      </c>
+      <c r="M9" s="9">
+        <v>3.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="26" t="s">
+      <c r="B10" s="13">
+        <v>19301</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>18288</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="F10" s="15">
+        <v>15537</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="H10" s="15">
+        <v>4349</v>
+      </c>
+      <c r="I10" s="14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J10" s="15">
+        <v>871</v>
+      </c>
+      <c r="K10" s="16">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="L10" s="15">
+        <v>943216</v>
+      </c>
+      <c r="M10" s="16">
+        <v>4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="27" t="s">
+      <c r="B11" s="13">
+        <v>20869</v>
+      </c>
+      <c r="C11" s="14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>19923</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>17439</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>4453</v>
+      </c>
+      <c r="I11" s="16">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="J11" s="15">
+        <v>851</v>
+      </c>
+      <c r="K11" s="16">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="L11" s="15">
+        <v>1003940</v>
+      </c>
+      <c r="M11" s="16">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11">
-        <v>187</v>
-      </c>
-      <c r="C7" s="12">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>145</v>
-      </c>
-      <c r="G7" s="12">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="H7" s="13">
-        <v>113</v>
-      </c>
-      <c r="I7" s="14">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J7" s="13">
-        <v>95</v>
-      </c>
-      <c r="K7" s="12">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="L7" s="13">
-        <v>78</v>
-      </c>
-      <c r="M7" s="14">
+      <c r="B12" s="8">
+        <v>20792</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>19766</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>16111</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4493</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <v>957</v>
+      </c>
+      <c r="K12" s="9">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1015992</v>
+      </c>
+      <c r="M12" s="9">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>24770</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4.87E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>23554</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>18252</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4656</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1082</v>
+      </c>
+      <c r="K13" s="9">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="L13" s="10">
+        <v>995451</v>
+      </c>
+      <c r="M13" s="9">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>22675</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>21377</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>16781</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4647</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1038</v>
+      </c>
+      <c r="K14" s="9">
+        <v>8.72E-2</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1008711</v>
+      </c>
+      <c r="M14" s="9">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20820</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>19477</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4.07E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>15421</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4369</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4.82E-2</v>
+      </c>
+      <c r="J15" s="10">
+        <v>990</v>
+      </c>
+      <c r="K15" s="9">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1114795</v>
+      </c>
+      <c r="M15" s="9">
+        <v>4.7600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <v>25899</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>24896</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <v>22408</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <v>4018</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>885</v>
+      </c>
+      <c r="K16" s="9">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="L16" s="10">
+        <v>832521</v>
+      </c>
+      <c r="M16" s="9">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13">
+        <v>23732</v>
+      </c>
+      <c r="C17" s="16">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>22779</v>
+      </c>
+      <c r="E17" s="16">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="F17" s="15">
+        <v>20696</v>
+      </c>
+      <c r="G17" s="16">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4151</v>
+      </c>
+      <c r="I17" s="16">
+        <v>4.58E-2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>859</v>
+      </c>
+      <c r="K17" s="16">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>857893</v>
+      </c>
+      <c r="M17" s="16">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13">
+        <v>21894</v>
+      </c>
+      <c r="C18" s="16">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>20905</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>18221</v>
+      </c>
+      <c r="G18" s="16">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="H18" s="15">
+        <v>4141</v>
+      </c>
+      <c r="I18" s="16">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="J18" s="15">
+        <v>891</v>
+      </c>
+      <c r="K18" s="16">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="L18" s="15">
+        <v>785471</v>
+      </c>
+      <c r="M18" s="16">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18538</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="D19" s="10">
+        <v>17653</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>14188</v>
+      </c>
+      <c r="G19" s="9">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4191</v>
+      </c>
+      <c r="I19" s="9">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="J19" s="10">
+        <v>945</v>
+      </c>
+      <c r="K19" s="9">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="L19" s="10">
+        <v>978734</v>
+      </c>
+      <c r="M19" s="9">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>20253</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>19270</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>16278</v>
+      </c>
+      <c r="G20" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4328</v>
+      </c>
+      <c r="I20" s="9">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="J20" s="10">
+        <v>847</v>
+      </c>
+      <c r="K20" s="9">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="L20" s="10">
+        <v>755641</v>
+      </c>
+      <c r="M20" s="9">
+        <v>3.2300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>23066</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>21826</v>
+      </c>
+      <c r="E21" s="9">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>17932</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="H21" s="10">
+        <v>4122</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="J21" s="10">
+        <v>925</v>
+      </c>
+      <c r="K21" s="9">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="L21" s="10">
+        <v>908200</v>
+      </c>
+      <c r="M21" s="9">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>19398</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>18076</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3.78E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>15700</v>
+      </c>
+      <c r="G22" s="9">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>3248</v>
+      </c>
+      <c r="I22" s="9">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="J22" s="10">
+        <v>882</v>
+      </c>
+      <c r="K22" s="9">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="L22" s="10">
+        <v>778122</v>
+      </c>
+      <c r="M22" s="9">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>7510</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>6671</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4431</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H23" s="10">
+        <v>723</v>
+      </c>
+      <c r="I23" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J23" s="10">
+        <v>617</v>
+      </c>
+      <c r="K23" s="9">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>515138</v>
+      </c>
+      <c r="M23" s="11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A24" s="12">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13">
+        <v>4960</v>
+      </c>
+      <c r="C24" s="16">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="D24" s="15">
+        <v>4303</v>
+      </c>
+      <c r="E24" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F24" s="15">
+        <v>3565</v>
+      </c>
+      <c r="G24" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H24" s="15">
+        <v>636</v>
+      </c>
+      <c r="I24" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11">
-        <v>166</v>
-      </c>
-      <c r="C8" s="12">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>132</v>
-      </c>
-      <c r="G8" s="12">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="H8" s="13">
-        <v>106</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="J8" s="13">
-        <v>90</v>
-      </c>
-      <c r="K8" s="14">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L8" s="13">
-        <v>75</v>
-      </c>
-      <c r="M8" s="12">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A9" s="10">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11">
-        <v>188</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="J24" s="15">
+        <v>516</v>
+      </c>
+      <c r="K24" s="16">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="L24" s="15">
+        <v>470900</v>
+      </c>
+      <c r="M24" s="16">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A25" s="12">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13">
+        <v>5792</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D25" s="15">
+        <v>5133</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="F25" s="15">
+        <v>3888</v>
+      </c>
+      <c r="G25" s="16">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H25" s="15">
+        <v>650</v>
+      </c>
+      <c r="I25" s="16">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="J25" s="15">
+        <v>498</v>
+      </c>
+      <c r="K25" s="16">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="L25" s="15">
+        <v>387468</v>
+      </c>
+      <c r="M25" s="16">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>14374</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="D26" s="10">
+        <v>13385</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>10617</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1360</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <v>941</v>
+      </c>
+      <c r="K26" s="11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <v>821836</v>
+      </c>
+      <c r="M26" s="9">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>12396</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="D27" s="10">
+        <v>11388</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>9238</v>
+      </c>
+      <c r="G27" s="9">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1061</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1.17E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <v>714</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="L27" s="10">
+        <v>630916</v>
+      </c>
+      <c r="M27" s="9">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A28" s="7">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>8623</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D28" s="10">
+        <v>7581</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>4990</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1.26E-2</v>
+      </c>
+      <c r="H28" s="10">
+        <v>759</v>
+      </c>
+      <c r="I28" s="9">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="J28" s="10">
+        <v>602</v>
+      </c>
+      <c r="K28" s="9">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="L28" s="10">
+        <v>787687</v>
+      </c>
+      <c r="M28" s="9">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
+        <v>8095</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="D29" s="10">
+        <v>7149</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>4616</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="H29" s="10">
+        <v>797</v>
+      </c>
+      <c r="I29" s="9">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="J29" s="10">
+        <v>631</v>
+      </c>
+      <c r="K29" s="11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L29" s="10">
+        <v>619912</v>
+      </c>
+      <c r="M29" s="9">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A30" s="7">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>6695</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D30" s="10">
+        <v>5823</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F30" s="10">
+        <v>4143</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H30" s="10">
+        <v>692</v>
+      </c>
+      <c r="I30" s="9">
+        <v>7.6E-3</v>
+      </c>
+      <c r="J30" s="10">
+        <v>516</v>
+      </c>
+      <c r="K30" s="9">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="L30" s="10">
+        <v>417603</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18.399999999999999" customHeight="1">
+      <c r="A31" s="12">
+        <v>27</v>
+      </c>
+      <c r="B31" s="13">
+        <v>6348</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D31" s="15">
+        <v>5665</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1.18E-2</v>
+      </c>
+      <c r="F31" s="15">
+        <v>4140</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H31" s="15">
+        <v>713</v>
+      </c>
+      <c r="I31" s="16">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>162</v>
-      </c>
-      <c r="G9" s="12">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="H9" s="13">
-        <v>112</v>
-      </c>
-      <c r="I9" s="12">
-        <v>3.0800000000000001E-2</v>
-      </c>
-      <c r="J9" s="13">
-        <v>103</v>
-      </c>
-      <c r="K9" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L9" s="13">
-        <v>70</v>
-      </c>
-      <c r="M9" s="12">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11">
-        <v>199</v>
-      </c>
-      <c r="C10" s="12">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>152</v>
-      </c>
-      <c r="G10" s="12">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="H10" s="13">
-        <v>115</v>
-      </c>
-      <c r="I10" s="12">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="J10" s="13">
-        <v>100</v>
-      </c>
-      <c r="K10" s="12">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="L10" s="13">
-        <v>85</v>
-      </c>
-      <c r="M10" s="12">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="11">
-        <v>769</v>
-      </c>
-      <c r="C11" s="12">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>693</v>
-      </c>
-      <c r="G11" s="14">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H11" s="13">
-        <v>123</v>
-      </c>
-      <c r="I11" s="12">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="J11" s="13">
-        <v>109</v>
-      </c>
-      <c r="K11" s="12">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="L11" s="13">
-        <v>361</v>
-      </c>
-      <c r="M11" s="12">
-        <v>3.27E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="15">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1140</v>
-      </c>
-      <c r="C12" s="17">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1074</v>
-      </c>
-      <c r="G12" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H12" s="18">
-        <v>112</v>
-      </c>
-      <c r="I12" s="17">
-        <v>3.0800000000000001E-2</v>
-      </c>
-      <c r="J12" s="18">
-        <v>99</v>
-      </c>
-      <c r="K12" s="17">
-        <v>5.28E-2</v>
-      </c>
-      <c r="L12" s="18">
-        <v>548</v>
-      </c>
-      <c r="M12" s="17">
-        <v>4.9599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A13" s="15">
-        <v>7</v>
-      </c>
-      <c r="B13" s="16">
-        <v>227</v>
-      </c>
-      <c r="C13" s="17">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>188</v>
-      </c>
-      <c r="G13" s="17">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="H13" s="18">
-        <v>122</v>
-      </c>
-      <c r="I13" s="17">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="J13" s="18">
-        <v>102</v>
-      </c>
-      <c r="K13" s="17">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="L13" s="18">
-        <v>87</v>
-      </c>
-      <c r="M13" s="17">
-        <v>7.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A14" s="10">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11">
-        <v>356</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1.49E-2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <v>303</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="H14" s="13">
-        <v>129</v>
-      </c>
-      <c r="I14" s="12">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="J14" s="13">
-        <v>121</v>
-      </c>
-      <c r="K14" s="12">
-        <v>6.4600000000000005E-2</v>
-      </c>
-      <c r="L14" s="13">
-        <v>151</v>
-      </c>
-      <c r="M14" s="12">
-        <v>1.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="10">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11">
-        <v>202</v>
-      </c>
-      <c r="C15" s="12">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>168</v>
-      </c>
-      <c r="G15" s="12">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="H15" s="13">
-        <v>122</v>
-      </c>
-      <c r="I15" s="12">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="J15" s="13">
-        <v>104</v>
-      </c>
-      <c r="K15" s="12">
-        <v>5.5500000000000001E-2</v>
-      </c>
-      <c r="L15" s="13">
-        <v>85</v>
-      </c>
-      <c r="M15" s="12">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A16" s="10">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11">
-        <v>1253</v>
-      </c>
-      <c r="C16" s="12">
-        <v>5.2400000000000002E-2</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1192</v>
-      </c>
-      <c r="G16" s="12">
-        <v>5.33E-2</v>
-      </c>
-      <c r="H16" s="13">
-        <v>131</v>
-      </c>
-      <c r="I16" s="14">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J16" s="13">
-        <v>106</v>
-      </c>
-      <c r="K16" s="12">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="L16" s="13">
-        <v>604</v>
-      </c>
-      <c r="M16" s="12">
-        <v>5.4699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A17" s="10">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1347</v>
-      </c>
-      <c r="C17" s="12">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1217</v>
-      </c>
-      <c r="G17" s="12">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="H17" s="13">
-        <v>147</v>
-      </c>
-      <c r="I17" s="12">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="J17" s="13">
-        <v>116</v>
-      </c>
-      <c r="K17" s="12">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="L17" s="13">
-        <v>635</v>
-      </c>
-      <c r="M17" s="12">
-        <v>5.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A18" s="10">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11">
-        <v>527</v>
-      </c>
-      <c r="C18" s="14">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
-        <v>429</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="H18" s="13">
-        <v>128</v>
-      </c>
-      <c r="I18" s="12">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="J18" s="13">
-        <v>97</v>
-      </c>
-      <c r="K18" s="12">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="L18" s="13">
-        <v>237</v>
-      </c>
-      <c r="M18" s="12">
-        <v>2.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="15">
-        <v>13</v>
-      </c>
-      <c r="B19" s="16">
-        <v>515</v>
-      </c>
-      <c r="C19" s="17">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>456</v>
-      </c>
-      <c r="G19" s="17">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="H19" s="18">
-        <v>138</v>
-      </c>
-      <c r="I19" s="17">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="J19" s="18">
-        <v>116</v>
-      </c>
-      <c r="K19" s="17">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="L19" s="18">
-        <v>223</v>
-      </c>
-      <c r="M19" s="17">
-        <v>2.0199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A20" s="15">
-        <v>14</v>
-      </c>
-      <c r="B20" s="16">
-        <v>496</v>
-      </c>
-      <c r="C20" s="17">
-        <v>2.07E-2</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>470</v>
-      </c>
-      <c r="G20" s="19">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="H20" s="18">
-        <v>123</v>
-      </c>
-      <c r="I20" s="17">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="J20" s="18">
-        <v>98</v>
-      </c>
-      <c r="K20" s="17">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="L20" s="18">
-        <v>226</v>
-      </c>
-      <c r="M20" s="17">
-        <v>2.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="10">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11">
-        <v>2177</v>
-      </c>
-      <c r="C21" s="14">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>2126</v>
-      </c>
-      <c r="G21" s="12">
-        <v>9.5100000000000004E-2</v>
-      </c>
-      <c r="H21" s="13">
-        <v>120</v>
-      </c>
-      <c r="I21" s="14">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J21" s="13">
-        <v>110</v>
-      </c>
-      <c r="K21" s="12">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="L21" s="13">
-        <v>994</v>
-      </c>
-      <c r="M21" s="12">
-        <v>8.9899999999999994E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A22" s="10">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11">
-        <v>354</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <v>268</v>
-      </c>
-      <c r="G22" s="14">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H22" s="13">
-        <v>111</v>
-      </c>
-      <c r="I22" s="12">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="J22" s="13">
-        <v>90</v>
-      </c>
-      <c r="K22" s="14">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L22" s="13">
-        <v>157</v>
-      </c>
-      <c r="M22" s="12">
-        <v>1.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A23" s="10">
-        <v>17</v>
-      </c>
-      <c r="B23" s="11">
-        <v>501</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>463</v>
-      </c>
-      <c r="G23" s="12">
-        <v>2.07E-2</v>
-      </c>
-      <c r="H23" s="13">
-        <v>134</v>
-      </c>
-      <c r="I23" s="12">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="J23" s="13">
-        <v>103</v>
-      </c>
-      <c r="K23" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L23" s="13">
-        <v>222</v>
-      </c>
-      <c r="M23" s="12">
-        <v>2.01E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A24" s="10">
-        <v>18</v>
-      </c>
-      <c r="B24" s="11">
-        <v>771</v>
-      </c>
-      <c r="C24" s="12">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
-        <v>682</v>
-      </c>
-      <c r="G24" s="12">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="H24" s="13">
-        <v>116</v>
-      </c>
-      <c r="I24" s="12">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="J24" s="13">
-        <v>106</v>
-      </c>
-      <c r="K24" s="12">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="L24" s="13">
-        <v>362</v>
-      </c>
-      <c r="M24" s="12">
-        <v>3.27E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1791</v>
-      </c>
-      <c r="C25" s="12">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1731</v>
-      </c>
-      <c r="G25" s="12">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="H25" s="13">
-        <v>122</v>
-      </c>
-      <c r="I25" s="12">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="J25" s="13">
-        <v>100</v>
-      </c>
-      <c r="K25" s="12">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="L25" s="13">
-        <v>821</v>
-      </c>
-      <c r="M25" s="12">
-        <v>7.4300000000000005E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="15">
-        <v>20</v>
-      </c>
-      <c r="B26" s="16">
-        <v>845</v>
-      </c>
-      <c r="C26" s="17">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>808</v>
-      </c>
-      <c r="G26" s="17">
-        <v>3.61E-2</v>
-      </c>
-      <c r="H26" s="18">
-        <v>111</v>
-      </c>
-      <c r="I26" s="17">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="J26" s="18">
-        <v>96</v>
-      </c>
-      <c r="K26" s="17">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="L26" s="18">
-        <v>401</v>
-      </c>
-      <c r="M26" s="17">
-        <v>3.6299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="15">
-        <v>21</v>
-      </c>
-      <c r="B27" s="16">
-        <v>2945</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0.1231</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>2922</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0.13070000000000001</v>
-      </c>
-      <c r="H27" s="18">
-        <v>110</v>
-      </c>
-      <c r="I27" s="17">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="J27" s="18">
-        <v>85</v>
-      </c>
-      <c r="K27" s="17">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="L27" s="18">
-        <v>1399</v>
-      </c>
-      <c r="M27" s="17">
-        <v>0.12659999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A28" s="10">
-        <v>22</v>
-      </c>
-      <c r="B28" s="11">
-        <v>324</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1.35E-2</v>
-      </c>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <v>303</v>
-      </c>
-      <c r="G28" s="12">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="H28" s="13">
-        <v>100</v>
-      </c>
-      <c r="I28" s="12">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J28" s="13">
-        <v>89</v>
-      </c>
-      <c r="K28" s="12">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="L28" s="13">
-        <v>155</v>
-      </c>
-      <c r="M28" s="14">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A29" s="10">
-        <v>23</v>
-      </c>
-      <c r="B29" s="11">
-        <v>1205</v>
-      </c>
-      <c r="C29" s="12">
-        <v>5.04E-2</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>1167</v>
-      </c>
-      <c r="G29" s="12">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="H29" s="13">
-        <v>144</v>
-      </c>
-      <c r="I29" s="12">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="J29" s="13">
-        <v>108</v>
-      </c>
-      <c r="K29" s="12">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="L29" s="13">
-        <v>562</v>
-      </c>
-      <c r="M29" s="12">
-        <v>5.0900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A30" s="10">
-        <v>24</v>
-      </c>
-      <c r="B30" s="11">
-        <v>229</v>
-      </c>
-      <c r="C30" s="12">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="D30" s="13">
-        <v>0</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <v>207</v>
-      </c>
-      <c r="G30" s="12">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="H30" s="13">
-        <v>113</v>
-      </c>
-      <c r="I30" s="14">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J30" s="13">
-        <v>86</v>
-      </c>
-      <c r="K30" s="12">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="L30" s="13">
-        <v>98</v>
-      </c>
-      <c r="M30" s="12">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A31" s="10">
-        <v>25</v>
-      </c>
-      <c r="B31" s="11">
-        <v>374</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <v>313</v>
-      </c>
-      <c r="G31" s="14">
-        <v>1.4E-2</v>
-      </c>
-      <c r="H31" s="13">
-        <v>120</v>
-      </c>
-      <c r="I31" s="14">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J31" s="13">
-        <v>87</v>
-      </c>
-      <c r="K31" s="12">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="L31" s="13">
-        <v>172</v>
-      </c>
-      <c r="M31" s="12">
-        <v>1.55E-2</v>
+      <c r="J31" s="15">
+        <v>519</v>
+      </c>
+      <c r="K31" s="16">
+        <v>4.36E-2</v>
+      </c>
+      <c r="L31" s="15">
+        <v>374609</v>
+      </c>
+      <c r="M31" s="14">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A32" s="10">
-        <v>26</v>
-      </c>
-      <c r="B32" s="11">
-        <v>2226</v>
-      </c>
-      <c r="C32" s="14">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="14">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
-        <v>2152</v>
-      </c>
-      <c r="G32" s="12">
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="H32" s="13">
-        <v>122</v>
-      </c>
-      <c r="I32" s="12">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="J32" s="13">
-        <v>91</v>
-      </c>
-      <c r="K32" s="12">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="L32" s="13">
-        <v>1077</v>
-      </c>
-      <c r="M32" s="12">
-        <v>9.7500000000000003E-2</v>
+      <c r="A32" s="12">
+        <v>28</v>
+      </c>
+      <c r="B32" s="13">
+        <v>12337</v>
+      </c>
+      <c r="C32" s="16">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="D32" s="15">
+        <v>11643</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="F32" s="15">
+        <v>10264</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="H32" s="15">
+        <v>2056</v>
+      </c>
+      <c r="I32" s="16">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="J32" s="15">
+        <v>740</v>
+      </c>
+      <c r="K32" s="16">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="L32" s="15">
+        <v>561254</v>
+      </c>
+      <c r="M32" s="14">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="15">
-        <v>27</v>
-      </c>
-      <c r="B33" s="16">
-        <v>596</v>
-      </c>
-      <c r="C33" s="17">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
-        <v>526</v>
-      </c>
-      <c r="G33" s="17">
-        <v>2.35E-2</v>
-      </c>
-      <c r="H33" s="18">
-        <v>115</v>
-      </c>
-      <c r="I33" s="17">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="J33" s="18">
-        <v>101</v>
-      </c>
-      <c r="K33" s="17">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="L33" s="18">
-        <v>271</v>
-      </c>
-      <c r="M33" s="17">
-        <v>2.4500000000000001E-2</v>
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <v>20076</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D33" s="10">
+        <v>19027</v>
+      </c>
+      <c r="E33" s="9">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="F33" s="10">
+        <v>16359</v>
+      </c>
+      <c r="G33" s="9">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="H33" s="10">
+        <v>3281</v>
+      </c>
+      <c r="I33" s="9">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="J33" s="10">
+        <v>882</v>
+      </c>
+      <c r="K33" s="9">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="L33" s="10">
+        <v>988689</v>
+      </c>
+      <c r="M33" s="9">
+        <v>4.2200000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A34" s="15">
-        <v>28</v>
-      </c>
-      <c r="B34" s="16">
-        <v>246</v>
-      </c>
-      <c r="C34" s="17">
-        <v>1.03E-2</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
-        <v>220</v>
-      </c>
-      <c r="G34" s="17">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="H34" s="18">
-        <v>127</v>
-      </c>
-      <c r="I34" s="17">
-        <v>3.49E-2</v>
-      </c>
-      <c r="J34" s="18">
-        <v>106</v>
-      </c>
-      <c r="K34" s="17">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="L34" s="18">
-        <v>101</v>
-      </c>
-      <c r="M34" s="17">
-        <v>9.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A35" s="10">
-        <v>29</v>
-      </c>
-      <c r="B35" s="11">
-        <v>838</v>
-      </c>
-      <c r="C35" s="14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D35" s="13">
-        <v>0</v>
-      </c>
-      <c r="E35" s="14">
-        <v>0</v>
-      </c>
-      <c r="F35" s="13">
-        <v>813</v>
-      </c>
-      <c r="G35" s="12">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="H35" s="13">
-        <v>124</v>
-      </c>
-      <c r="I35" s="12">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="J35" s="13">
-        <v>101</v>
-      </c>
-      <c r="K35" s="12">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="L35" s="13">
-        <v>372</v>
-      </c>
-      <c r="M35" s="12">
-        <v>3.3700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A36" s="10">
+      <c r="A34" s="7">
         <v>30</v>
       </c>
-      <c r="B36" s="11">
-        <v>931</v>
-      </c>
-      <c r="C36" s="12">
-        <v>3.8899999999999997E-2</v>
-      </c>
-      <c r="D36" s="13">
-        <v>0</v>
-      </c>
-      <c r="E36" s="14">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
-        <v>873</v>
-      </c>
-      <c r="G36" s="12">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="H36" s="13">
-        <v>133</v>
-      </c>
-      <c r="I36" s="12">
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="J36" s="13">
-        <v>110</v>
-      </c>
-      <c r="K36" s="12">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="L36" s="13">
-        <v>420</v>
-      </c>
-      <c r="M36" s="14">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="B34" s="8">
+        <v>11016</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D34" s="10">
+        <v>9724</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>7243</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1.83E-2</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1446</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J34" s="10">
+        <v>819</v>
+      </c>
+      <c r="K34" s="9">
+        <v>6.88E-2</v>
+      </c>
+      <c r="L34" s="10">
+        <v>744952</v>
+      </c>
+      <c r="M34" s="9">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
